--- a/xlsx/约翰·席根塔勒_intext.xlsx
+++ b/xlsx/约翰·席根塔勒_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>约翰·席根塔勒</t>
   </si>
@@ -29,13 +29,13 @@
     <t>纳什维尔</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_约翰·席根塔勒</t>
+    <t>政策_政策_维基百科_约翰·席根塔勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
@@ -47,13 +47,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E6%AA%A2%E5%AF%9F%E9%95%B7</t>
   </si>
   <si>
-    <t>美國總檢察長</t>
+    <t>美国总检察长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
@@ -570,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>9</v>
@@ -596,10 +593,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -625,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -654,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -683,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -712,10 +709,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -741,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
